--- a/charts/Sphere_results.xlsx
+++ b/charts/Sphere_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\saxion_cmgt\2nd year\3rd term\Advanced Tools\advanced-tools-collision-eval\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE6EC2-5EAE-4876-B0D3-FC1D16C6766F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3DED95-5617-4A93-B18B-7265F5C71E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D797A31-0D3A-4C52-ADAE-0564CB9FFDE9}"/>
   </bookViews>
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
